--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8361.613036148752</v>
+        <v>1663960.994193603</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8361.613036148752</v>
+        <v>1663960.994193603</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6395.809628209564</v>
+        <v>383748.5776925737</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6395.809628209564</v>
+        <v>383748.5776925737</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959643692.4061551</v>
+        <v>39865069.79177874</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9337.092867991227</v>
+        <v>977460.1055076626</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17564.03189120764</v>
+        <v>1764570.755715534</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25790.97091442403</v>
+        <v>2551681.405923406</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34173.2310359828</v>
+        <v>3327539.393254047</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>42494.56199012214</v>
+        <v>4114409.324584689</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>50815.89294426148</v>
+        <v>4901279.255915331</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59314.49500951193</v>
+        <v>5699590.360579303</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67755.60374142906</v>
+        <v>6486460.291909942</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>76467.72195505936</v>
+        <v>7217258.845127032</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>84830.71549083093</v>
+        <v>8013050.219657008</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>93150.08729634066</v>
+        <v>8800160.869864881</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>101469.4591018504</v>
+        <v>9587271.520072758</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>109788.8309073601</v>
+        <v>10374382.17028064</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>118110.1618614995</v>
+        <v>11161252.10161128</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>127095.6034996264</v>
+        <v>11889749.52482454</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>318.0000000002445</v>
@@ -27052,13 +27052,13 @@
         <v>31</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>217</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
